--- a/RDS.xlsx
+++ b/RDS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,23 +459,33 @@
           <t>time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>89.7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.21</v>
+        <v>0.192</v>
       </c>
       <c r="C2" t="n">
-        <v>8.744420475228779e-06</v>
+        <v>7.59812449178022e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>27.09715713314716</v>
+        <v>9.615480229897992</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -484,17 +494,22 @@
         <v>90.3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="C3" t="n">
-        <v>1.81214582277612e-08</v>
+        <v>8.643614850806027e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26177823112787</v>
+        <v>0.171251110849291</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -503,530 +518,670 @@
         <v>91.7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.27</v>
+        <v>0.028</v>
       </c>
       <c r="C4" t="n">
-        <v>2.877686758271254e-06</v>
+        <v>1.056734310816497e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>22.27028199217351</v>
+        <v>1.054962080831043</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>0.29</v>
+        <v>0.132</v>
       </c>
       <c r="C5" t="n">
-        <v>9.614865514518037e-06</v>
+        <v>3.400658410443453e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>27.50927894865777</v>
+        <v>6.003701807620882</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96.3</v>
+        <v>95.7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22</v>
+        <v>0.116</v>
       </c>
       <c r="C6" t="n">
-        <v>7.125157780566092e-07</v>
+        <v>2.181371075254524e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>16.20779166701614</v>
+        <v>4.114922670734565</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96.7</v>
+        <v>96.3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C7" t="n">
-        <v>1.516592498698771e-08</v>
+        <v>1.198684738769692e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5114641559964668</v>
+        <v>1.599831745146445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101.2</v>
+        <v>96.7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06</v>
+        <v>0.012</v>
       </c>
       <c r="C8" t="n">
-        <v>2.798626624426031e-08</v>
+        <v>8.041912366475133e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>2.149296422609323</v>
+        <v>-0.1463314905841352</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101.7</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17</v>
+        <v>0.032</v>
       </c>
       <c r="C9" t="n">
-        <v>4.415001818113714e-07</v>
+        <v>2.187932332796653e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>14.12915567589885</v>
+        <v>4.228767729521071</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103.7</v>
+        <v>101.2</v>
       </c>
       <c r="B10" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="C10" t="n">
-        <v>9.479223865940388e-08</v>
+        <v>8.36936835492291e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>7.447574607295543</v>
+        <v>0.04994071529694091</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89.7</v>
+        <v>101.7</v>
       </c>
       <c r="B11" t="n">
-        <v>0.21</v>
+        <v>0.038</v>
       </c>
       <c r="C11" t="n">
-        <v>8.744420475228779e-06</v>
+        <v>9.466812816391209e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>27.09715713314716</v>
+        <v>0.5665840776333023</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:49:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>90.3</v>
+        <v>103.7</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03</v>
+        <v>0.066</v>
       </c>
       <c r="C12" t="n">
-        <v>1.81214582277612e-08</v>
+        <v>1.043871190635244e-12</v>
       </c>
       <c r="D12" t="n">
-        <v>0.26177823112787</v>
+        <v>0.9906868571725674</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:49:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91.7</v>
+        <v>105.7</v>
       </c>
       <c r="B13" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="C13" t="n">
-        <v>2.877686758271254e-06</v>
+        <v>1.979938888129676e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>22.27028199217351</v>
+        <v>3.659386445099527</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:49:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95.7</v>
+        <v>106.3</v>
       </c>
       <c r="B14" t="n">
-        <v>0.29</v>
+        <v>0.138</v>
       </c>
       <c r="C14" t="n">
-        <v>9.614865514518037e-06</v>
+        <v>1.64411405746993e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>27.50927894865777</v>
+        <v>2.959092954727735</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:49:41</t>
+          <t>09:46:04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96.3</v>
+        <v>89.7</v>
       </c>
       <c r="B15" t="n">
-        <v>0.22</v>
+        <v>0.195</v>
       </c>
       <c r="C15" t="n">
-        <v>7.125157780566092e-07</v>
+        <v>8.113929680001851e-12</v>
       </c>
       <c r="D15" t="n">
-        <v>16.20779166701614</v>
+        <v>9.799594944363632</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:49:41</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96.7</v>
+        <v>90.3</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="C16" t="n">
-        <v>1.516592498698771e-08</v>
+        <v>8.786601703278726e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5114641559964668</v>
+        <v>0.2065109597624774</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:49:41</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>101.2</v>
+        <v>91.7</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06</v>
+        <v>0.032</v>
       </c>
       <c r="C17" t="n">
-        <v>2.798626624426031e-08</v>
+        <v>1.061058595045996e-12</v>
       </c>
       <c r="D17" t="n">
-        <v>2.149296422609323</v>
+        <v>1.019227541272246</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:49:41</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>101.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>0.17</v>
+        <v>0.144</v>
       </c>
       <c r="C18" t="n">
-        <v>4.415001818113714e-07</v>
+        <v>3.203504192077333e-12</v>
       </c>
       <c r="D18" t="n">
-        <v>14.12915567589885</v>
+        <v>5.75892879897031</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:49:41</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>103.7</v>
+        <v>95.7</v>
       </c>
       <c r="B19" t="n">
-        <v>0.22</v>
+        <v>0.113</v>
       </c>
       <c r="C19" t="n">
-        <v>9.479223865940388e-08</v>
+        <v>2.428100670720481e-12</v>
       </c>
       <c r="D19" t="n">
-        <v>7.447574607295543</v>
+        <v>4.481336376542323</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:49:41</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>89.7</v>
+        <v>96.3</v>
       </c>
       <c r="B20" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="C20" t="n">
-        <v>8.744420475228779e-06</v>
+        <v>1.181036644644006e-12</v>
       </c>
       <c r="D20" t="n">
-        <v>27.09715713314716</v>
+        <v>1.47812751653058</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>90.3</v>
+        <v>96.7</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03</v>
+        <v>0.011</v>
       </c>
       <c r="C21" t="n">
-        <v>1.81214582277612e-08</v>
+        <v>7.849903626042852e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>0.26177823112787</v>
+        <v>-0.2910209194184005</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>91.7</v>
+        <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>0.27</v>
+        <v>0.032</v>
       </c>
       <c r="C22" t="n">
-        <v>2.877686758271254e-06</v>
+        <v>1.987151639909007e-12</v>
       </c>
       <c r="D22" t="n">
-        <v>22.27028199217351</v>
+        <v>3.596798522480611</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>95.7</v>
+        <v>101.2</v>
       </c>
       <c r="B23" t="n">
-        <v>0.29</v>
+        <v>0.016</v>
       </c>
       <c r="C23" t="n">
-        <v>9.614865514518037e-06</v>
+        <v>8.516299977646363e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>27.50927894865777</v>
+        <v>0.06622761556635548</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>96.3</v>
+        <v>101.7</v>
       </c>
       <c r="B24" t="n">
-        <v>0.22</v>
+        <v>0.03900000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>7.125157780566093e-07</v>
+        <v>1.02368723464605e-12</v>
       </c>
       <c r="D24" t="n">
-        <v>16.20779166701614</v>
+        <v>0.848816198735466</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>96.7</v>
+        <v>103.7</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>1.516592498698771e-08</v>
+        <v>1.145227937782422e-12</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.5114641559964668</v>
+        <v>1.32168847527843</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>101.2</v>
+        <v>105.7</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06</v>
+        <v>0.1225</v>
       </c>
       <c r="C26" t="n">
-        <v>2.798626624426031e-08</v>
+        <v>2.002523671633103e-12</v>
       </c>
       <c r="D26" t="n">
-        <v>2.149296422609323</v>
+        <v>3.7398017482146</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>101.7</v>
+        <v>106.3</v>
       </c>
       <c r="B27" t="n">
-        <v>0.17</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="C27" t="n">
-        <v>4.415001818113714e-07</v>
+        <v>1.668639203233648e-12</v>
       </c>
       <c r="D27" t="n">
-        <v>14.12915567589885</v>
+        <v>2.966830059898324</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>103.7</v>
+        <v>89.7</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22</v>
+        <v>0.1893333333333334</v>
       </c>
       <c r="C28" t="n">
-        <v>9.479223865940388e-08</v>
+        <v>8.259382192629937e-12</v>
       </c>
       <c r="D28" t="n">
-        <v>7.447574607295543</v>
+        <v>9.943233331355358</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>89.7</v>
+        <v>90.3</v>
       </c>
       <c r="B29" t="n">
-        <v>0.21</v>
+        <v>0.02733333333333333</v>
       </c>
       <c r="C29" t="n">
-        <v>8.744420475228779e-06</v>
+        <v>9.059560768519251e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>27.09715713314716</v>
+        <v>0.4107478719703598</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>90.3</v>
+        <v>91.7</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03</v>
+        <v>0.04133333333333333</v>
       </c>
       <c r="C30" t="n">
-        <v>1.81214582277612e-08</v>
+        <v>1.054429149361069e-12</v>
       </c>
       <c r="D30" t="n">
-        <v>0.26177823112787</v>
+        <v>1.071798433804848</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>91.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>0.27</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="C31" t="n">
-        <v>2.877686758271254e-06</v>
+        <v>3.187106242928521e-12</v>
       </c>
       <c r="D31" t="n">
-        <v>22.27028199217351</v>
+        <v>5.810925175575701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1190,22 @@
         <v>95.7</v>
       </c>
       <c r="B32" t="n">
-        <v>0.29</v>
+        <v>0.1153333333333333</v>
       </c>
       <c r="C32" t="n">
-        <v>9.614865514518037e-06</v>
+        <v>2.242192980206863e-12</v>
       </c>
       <c r="D32" t="n">
-        <v>27.50927894865777</v>
+        <v>4.182877393371852</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -1054,17 +1214,22 @@
         <v>96.3</v>
       </c>
       <c r="B33" t="n">
-        <v>0.22</v>
+        <v>0.042</v>
       </c>
       <c r="C33" t="n">
-        <v>7.125157780566092e-07</v>
+        <v>1.174111641551004e-12</v>
       </c>
       <c r="D33" t="n">
-        <v>16.20779166701614</v>
+        <v>1.516643749371718</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -1073,416 +1238,3478 @@
         <v>96.7</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02</v>
+        <v>0.01066666666666667</v>
       </c>
       <c r="C34" t="n">
-        <v>1.516592498698771e-08</v>
+        <v>7.730807062061303e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.5114641559964668</v>
+        <v>-0.2731657356165864</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>101.2</v>
+        <v>100</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06</v>
+        <v>0.03133333333333333</v>
       </c>
       <c r="C35" t="n">
-        <v>2.798626624426031e-08</v>
+        <v>1.905311916046727e-12</v>
       </c>
       <c r="D35" t="n">
-        <v>2.149296422609323</v>
+        <v>3.450245334874094</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17</v>
+        <v>0.01933333333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>4.415001818113714e-07</v>
+        <v>8.337525577358414e-13</v>
       </c>
       <c r="D36" t="n">
-        <v>14.12915567589885</v>
+        <v>-0.008090832866637181</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>103.7</v>
+        <v>101.7</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22</v>
+        <v>0.038</v>
       </c>
       <c r="C37" t="n">
-        <v>9.479223865940388e-08</v>
+        <v>9.831053879811045e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>7.447574607295543</v>
+        <v>0.7238555289446356</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:59:42</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>89.7</v>
+        <v>103.7</v>
       </c>
       <c r="B38" t="n">
-        <v>0.21</v>
+        <v>0.06799999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>8.744420475228779e-06</v>
+        <v>1.092088504418131e-12</v>
       </c>
       <c r="D38" t="n">
-        <v>27.09715713314716</v>
+        <v>1.197265163775455</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>90.3</v>
+        <v>105.7</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03</v>
+        <v>0.1258333333333333</v>
       </c>
       <c r="C39" t="n">
-        <v>1.81214582277612e-08</v>
+        <v>1.871634098130682e-12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26177823112787</v>
+        <v>3.505983434261078</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>91.7</v>
+        <v>106.3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.27</v>
+        <v>0.1245454545454546</v>
       </c>
       <c r="C40" t="n">
-        <v>2.877686758271254e-06</v>
+        <v>1.625114838541e-12</v>
       </c>
       <c r="D40" t="n">
-        <v>22.27028199217351</v>
+        <v>2.942446873112794</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>95.7</v>
+        <v>89.7</v>
       </c>
       <c r="B41" t="n">
-        <v>0.29</v>
+        <v>0.1815</v>
       </c>
       <c r="C41" t="n">
-        <v>9.614865514518037e-06</v>
+        <v>8.60544293148509e-12</v>
       </c>
       <c r="D41" t="n">
-        <v>27.50927894865777</v>
+        <v>9.983915260635477</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>96.3</v>
+        <v>90.3</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22</v>
+        <v>0.027</v>
       </c>
       <c r="C42" t="n">
-        <v>7.125157780566093e-07</v>
+        <v>9.019527598209086e-13</v>
       </c>
       <c r="D42" t="n">
-        <v>16.20779166701614</v>
+        <v>0.3344622454667176</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>96.7</v>
+        <v>91.7</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02</v>
+        <v>0.0415</v>
       </c>
       <c r="C43" t="n">
-        <v>1.516592498698771e-08</v>
+        <v>1.071426633746703e-12</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.5114641559964668</v>
+        <v>1.084934838697774</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>101.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06</v>
+        <v>0.131</v>
       </c>
       <c r="C44" t="n">
-        <v>2.798626624426031e-08</v>
+        <v>3.263464710330754e-12</v>
       </c>
       <c r="D44" t="n">
-        <v>2.149296422609323</v>
+        <v>5.845263437011494</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>101.7</v>
+        <v>95.7</v>
       </c>
       <c r="B45" t="n">
-        <v>0.17</v>
+        <v>0.123</v>
       </c>
       <c r="C45" t="n">
-        <v>4.415001818113713e-07</v>
+        <v>2.161408665773304e-12</v>
       </c>
       <c r="D45" t="n">
-        <v>14.12915567589885</v>
+        <v>3.981542926203241</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>103.7</v>
+        <v>96.3</v>
       </c>
       <c r="B46" t="n">
-        <v>0.22</v>
+        <v>0.042</v>
       </c>
       <c r="C46" t="n">
-        <v>9.479223865940388e-08</v>
+        <v>1.237650822440386e-12</v>
       </c>
       <c r="D46" t="n">
-        <v>7.447574607295543</v>
+        <v>1.665198588406138</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>16:04:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>89.7</v>
+        <v>96.7</v>
       </c>
       <c r="B47" t="n">
-        <v>0.21</v>
+        <v>0.0105</v>
       </c>
       <c r="C47" t="n">
-        <v>8.744420475228779e-06</v>
+        <v>7.682982340571773e-13</v>
       </c>
       <c r="D47" t="n">
-        <v>27.09715713314716</v>
+        <v>-0.3614429992369122</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>16:09:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>90.3</v>
+        <v>100</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03</v>
+        <v>0.0325</v>
       </c>
       <c r="C48" t="n">
-        <v>1.81214582277612e-08</v>
+        <v>1.840636631804998e-12</v>
       </c>
       <c r="D48" t="n">
-        <v>0.26177823112787</v>
+        <v>3.242538249345969</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>16:09:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>91.7</v>
+        <v>100.9</v>
       </c>
       <c r="B49" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="C49" t="n">
-        <v>2.877686758271254e-06</v>
+        <v>1.16582553882498e-12</v>
       </c>
       <c r="D49" t="n">
-        <v>22.27028199217351</v>
+        <v>1.963257955463438</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>16:09:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>95.7</v>
+        <v>101.2</v>
       </c>
       <c r="B50" t="n">
-        <v>0.29</v>
+        <v>0.0185</v>
       </c>
       <c r="C50" t="n">
-        <v>9.614865514518037e-06</v>
+        <v>8.362884989808955e-13</v>
       </c>
       <c r="D50" t="n">
-        <v>27.50927894865777</v>
+        <v>-0.04336230577470128</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>16:09:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>96.3</v>
+        <v>101.7</v>
       </c>
       <c r="B51" t="n">
-        <v>0.22</v>
+        <v>0.0405</v>
       </c>
       <c r="C51" t="n">
-        <v>7.125157780566093e-07</v>
+        <v>9.94964226026655e-13</v>
       </c>
       <c r="D51" t="n">
-        <v>16.20779166701614</v>
+        <v>0.7327328871819992</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>16:09:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>96.7</v>
+        <v>103.7</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02</v>
+        <v>0.06150000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>1.516592498698771e-08</v>
+        <v>1.075708198092709e-12</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.5114641559964668</v>
+        <v>1.074142857229559</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>16:09:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>101.2</v>
+        <v>105.7</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="C53" t="n">
-        <v>2.798626624426031e-08</v>
+        <v>1.854538225790483e-12</v>
       </c>
       <c r="D53" t="n">
-        <v>2.149296422609323</v>
+        <v>3.412516005873434</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>16:09:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>101.7</v>
+        <v>106.3</v>
       </c>
       <c r="B54" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="C54" t="n">
-        <v>4.415001818113714e-07</v>
+        <v>1.700380548786501e-12</v>
       </c>
       <c r="D54" t="n">
-        <v>14.12915567589885</v>
+        <v>3.059386392469567</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>16:09:43</t>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1752</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9.144540607884947e-12</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10.14390752557924</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9.081100377825158e-13</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3436504696975379</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.051464216154944e-12</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9716918573341009</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>95</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.561467780106117e-12</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.054728340021756</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1329166666666667</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.29618171795678e-12</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.851909125340866</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1228</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.216855788116018e-12</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.073389812110301</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.239086423929564e-12</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.659440396045919</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7.593670142538093e-13</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.4357430523683489</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>100</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0336</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.76231666981016e-12</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.985113363270562</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.16582553882498e-12</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.963257955463438</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0188</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8.360397845082326e-13</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.05192282995391064</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="C66" t="n">
+        <v>9.790019759189628e-13</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.6427723294313553</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
         <v>103.7</v>
       </c>
-      <c r="B55" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C55" t="n">
-        <v>9.479223865940388e-08</v>
-      </c>
-      <c r="D55" t="n">
-        <v>7.447574607295543</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>16:09:43</t>
+      <c r="B67" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.040088840429814e-12</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9015049645589778</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.128421052631579</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.767326407084115e-12</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.242291951283412</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.75640701781111e-12</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.168622835429336</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1683333333333333</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9.423026255532662e-12</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10.255540567645</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.03066666666666666</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9.095590495049579e-13</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.3173380416500443</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.04266666666666667</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.046946117470158e-12</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9113622306348111</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>95</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.561467780106117e-12</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.054728340021756</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1331034482758621</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.168670994268241e-12</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.637318583968528</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1226666666666667</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.235870749874634e-12</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.070272772271918</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.04533333333333333</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.258835392448276e-12</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.697155035828841</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.01066666666666667</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.462611414486019e-13</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.5471459555828188</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>100</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.03366666666666666</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.808308185195282e-12</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.064002119522638</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.16582553882498e-12</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.963257955463438</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.01966666666666667</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8.454525758555134e-13</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.03613888204371277</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="C81" t="n">
+        <v>9.651042790890293e-13</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.5481307903417714</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.05266666666666667</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.023913808761203e-12</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7979363741540865</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1269565217391304</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.799245761471748e-12</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.28665742586427</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1124</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.927155075651405e-12</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.449302310196964</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1634285714285714</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9.372942022531845e-12</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10.32618092046936</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="C86" t="n">
+        <v>8.984914794300128e-13</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3391067312815317</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.033955985089304e-12</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.928421848108235</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>95</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.992459741247037e-12</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4.056242794274507</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1345454545454546</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.170732422023249e-12</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5.693458286836711</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.244757182990345e-12</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4.170196096031757</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.04571428571428571</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.256581652932063e-12</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.770736378196082</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.01114285714285714</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.478124639881153e-13</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.465874422580437</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.763655559276693e-12</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.020873935132163</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.16582553882498e-12</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.963257955463438</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>09:46:05</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.01914285714285714</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8.453706667293365e-13</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.04359304143538384</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.04114285714285714</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.576135164096171e-13</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5822522554133255</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.04942857142857143</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.007625690715381e-12</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.8073784277897875</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1289285714285714</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.771039070439428e-12</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.307622848439141</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.975495009230188e-12</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.638081714365953</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.16775</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9.094023563309847e-12</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10.14957089379998</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.02825</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9.031449111838562e-13</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.3287746661094887</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.04275</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.016305995547385e-12</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.8188155176847729</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>95</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.992459741247037e-12</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.056242794274507</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.133421052631579</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.219506492688388e-12</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5.714986612393665</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.209138740300826e-12</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4.079034519258574</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.04600000000000001</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.271352626155668e-12</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.789985336147438</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.473745419030892e-13</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.4977320173742109</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>100</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.03375</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.768444013610237e-12</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.998811969966328</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.241717577290322e-12</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.641968111167192</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.01875</v>
+      </c>
+      <c r="C110" t="n">
+        <v>8.426987580341853e-13</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.0007619794637646621</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9.678894802269639e-13</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.6018882549276555</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.05075</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.012955553331265e-12</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.7979969083356557</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.128125</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.785532964053164e-12</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.290225730589691</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.106764705882353</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.986672521476606e-12</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.640975148643907</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.1715555555555556</v>
+      </c>
+      <c r="C115" t="n">
+        <v>8.890723014194919e-12</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10.10209315781809</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.02644444444444444</v>
+      </c>
+      <c r="C116" t="n">
+        <v>8.946356045449368e-13</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.3364680300264667</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.04177777777777778</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9.998813527385595e-13</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.7960438648172019</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>95</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.939446376698939e-12</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.163200635256399</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.1307142857142857</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.276288787147606e-12</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.822782208075374</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1184444444444444</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.174552105359701e-12</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.065835448925061</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.04511111111111112</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.26803531983082e-12</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.822442014027237</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.01133333333333333</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.417365879533178e-13</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.4830658506721826</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>98</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.062633220815337e-12</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.7751999018939421</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>100</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.03355555555555555</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.748854643394894e-12</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.998135379949119</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.241717577290322e-12</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.641968111167192</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.01822222222222222</v>
+      </c>
+      <c r="C126" t="n">
+        <v>8.425115408396604e-13</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.04891463562380206</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.04311111111111111</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9.748057740796385e-13</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.6848951125498802</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.05088888888888889</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.029442058597459e-12</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.9140567128448059</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.1297297297297297</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.772913508758629e-12</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.31762107724083</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.1086842105263158</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.947841524845854e-12</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.596062665700292</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.1724</v>
+      </c>
+      <c r="C131" t="n">
+        <v>8.848513383180651e-12</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10.07549953926779</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.07029279878917e-13</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.3712748500953399</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.000515826759747e-12</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.7805174062916636</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>95</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.939446376698939e-12</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.163200635256399</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.1308510638297872</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.292683756985728e-12</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5.832046527720201</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.1192</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.179325766805271e-12</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.062520964146733</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.253232617489018e-12</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.751509376036486</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7.386380921144573e-13</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.5207250661442713</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>98</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.062633220815337e-12</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.7751999018939421</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>100</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.0338</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.75790988837967e-12</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3.006800477293599</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.241717577290322e-12</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.641968111167192</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="C142" t="n">
+        <v>8.5395221304389e-13</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.08382445725283934</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.04380000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.834611219655333e-13</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.7015715183714452</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.027614967943287e-12</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.8860851804092638</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.1283333333333333</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.771773816037513e-12</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.290091043733925</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.1102380952380952</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.923633056374116e-12</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3.538571831445892</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.1747272727272727</v>
+      </c>
+      <c r="C147" t="n">
+        <v>8.660835699676141e-12</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9.979083033708836</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.02781818181818182</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9.182719705416942e-13</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.4189626635728286</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.003138846384901e-12</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.7767549137199464</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>95</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.974656742955469e-12</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.16890997915013</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.1335294117647059</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.270023962367431e-12</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.799429800989021</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.1198181818181818</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.191258436514931e-12</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.090890835006863</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.04581818181818181</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.251315889739593e-12</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.743599581472639</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.01145454545454545</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.431886203676343e-13</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.5024273344321746</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>98</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.062633220815337e-12</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.7751999018939421</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>100</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.03345454545454545</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.74469852624116e-12</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.959523105117972</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.241717577290322e-12</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.641968111167192</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.01854545454545455</v>
+      </c>
+      <c r="C158" t="n">
+        <v>8.597433147269259e-13</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.1095369276466258</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.04309090909090909</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.80699419455734e-13</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.6827177954769718</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.04963636363636364</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.037282091214654e-12</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.9216668476692849</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.1282978723404255</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.800730350195841e-12</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3.336383803039755</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.1115217391304348</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.900286188355495e-12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.475310585716437</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.1753333333333333</v>
+      </c>
+      <c r="C163" t="n">
+        <v>8.605154513527141e-12</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.95304820678216</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9.158918106287818e-13</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.3980233422865279</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.04116666666666666</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.001313200455356e-12</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.76232264711687</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>95</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.222031439645682e-12</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4.557741884347671</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.1316363636363636</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3.378218380067239e-12</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5.912255562657062</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.1211666666666667</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.187301501719293e-12</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4.072843837568176</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.04566666666666667</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.249499031868582e-12</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.72999507927199</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.01133333333333333</v>
+      </c>
+      <c r="C170" t="n">
+        <v>7.493752714142304e-13</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.4766486988994107</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>98</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.062633220815337e-12</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.7751999018939421</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>09:46:07</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>100</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.739477317269124e-12</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.922857341541181</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.241717577290322e-12</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.641968111167192</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>09:46:06</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.01833333333333333</v>
+      </c>
+      <c r="C174" t="n">
+        <v>8.57289917261887e-13</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.08690080655426041</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9.766969191393919e-13</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.6569568944979891</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.043569547155151e-12</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.9394056128899315</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.1290196078431373</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.795544442699208e-12</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3.305469414141059</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.1118</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.873649111380365e-12</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3.394069971642966</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>09:46:08</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
